--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_193.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_193.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.360000', '0:00:16.520000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -618,178 +626,178 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:58.120000', '0:01:02.720000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -798,407 +806,374 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(21.58, 30.14)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:00:25.480000', '0:00:32.760000'), ('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1854395604395604</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['G/3', 'D', 'G', 'D/3', 'E:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['A', 'E', 'A', 'E', 'F#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.58, 14.56)]</t>
+          <t>[('0:00:24.934603', '0:00:30.472562')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:05.045102', '0:00:12.823786')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.62, 21.66)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.98, 6.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.08, 43.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
